--- a/Paper_resultados/Parametric_model/LoS/Output/Model_selection/Age/summary_g2.xlsx
+++ b/Paper_resultados/Parametric_model/LoS/Output/Model_selection/Age/summary_g2.xlsx
@@ -391,7 +391,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1.553110571468808</v>
+        <v>2.792073065264805</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -404,7 +404,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>4.481689070338073</v>
+        <v>6.874808474299325</v>
       </c>
       <c r="E3">
         <v>7</v>
@@ -417,7 +417,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>12.93245779931331</v>
+        <v>15.81912627100418</v>
       </c>
       <c r="E4">
         <v>17.25</v>
